--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T11:12:53+00:00</t>
+    <t>2022-11-22T14:31:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-22T14:31:57+00:00</t>
+    <t>2022-11-23T06:27:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-23T06:27:07+00:00</t>
+    <t>2022-11-25T10:22:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T10:22:52+00:00</t>
+    <t>2022-11-25T13:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-or-comorbidities-present</t>
+    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-conditions-or-comorbidities-present</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T13:25:06+00:00</t>
+    <t>2022-11-25T14:14:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -348,7 +348,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-yes-no</t>
+    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-yes-no</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.7734375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="55.375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/StructureDefinition/covid19-conditions-or-comorbidities-present</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/StructureDefinition/covid19-conditions-or-comorbidities-present</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-25T14:14:34+00:00</t>
+    <t>2022-11-28T06:50:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -348,7 +348,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>https://openhie.github.io/cares-covid-ig/ValueSet/vs-yes-no</t>
+    <t>http://openhie.org/fhir/covid19-casereporting/ValueSet/vs-yes-no</t>
   </si>
 </sst>
 </file>
@@ -694,7 +694,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="55.375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="60.7734375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T06:50:59+00:00</t>
+    <t>2022-11-28T08:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T08:23:30+00:00</t>
+    <t>2022-11-28T09:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T09:07:59+00:00</t>
+    <t>2022-11-28T09:59:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T09:59:43+00:00</t>
+    <t>2022-11-28T13:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T13:41:14+00:00</t>
+    <t>2022-11-28T14:56:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T14:56:48+00:00</t>
+    <t>2022-11-29T10:50:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T10:50:32+00:00</t>
+    <t>2022-11-29T13:22:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:22:36+00:00</t>
+    <t>2022-11-29T13:43:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T13:43:38+00:00</t>
+    <t>2022-11-29T15:00:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:00:23+00:00</t>
+    <t>2022-11-29T15:28:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:28:54+00:00</t>
+    <t>2022-11-29T15:52:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T15:52:33+00:00</t>
+    <t>2022-11-29T16:19:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:19:00+00:00</t>
+    <t>2022-11-29T16:44:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T16:44:21+00:00</t>
+    <t>2022-11-29T17:25:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-29T17:25:06+00:00</t>
+    <t>2022-11-30T06:35:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T06:35:21+00:00</t>
+    <t>2022-11-30T07:52:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T07:52:50+00:00</t>
+    <t>2022-11-30T09:12:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T09:12:59+00:00</t>
+    <t>2022-11-30T11:35:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:35:18+00:00</t>
+    <t>2022-11-30T11:59:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T11:59:57+00:00</t>
+    <t>2022-11-30T13:03:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T13:03:35+00:00</t>
+    <t>2022-11-30T14:32:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-30T14:32:33+00:00</t>
+    <t>2022-12-01T07:10:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:10:15+00:00</t>
+    <t>2022-12-01T07:50:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T07:50:10+00:00</t>
+    <t>2022-12-01T08:28:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T08:28:25+00:00</t>
+    <t>2022-12-01T12:14:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T12:14:26+00:00</t>
+    <t>2022-12-01T15:41:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0-test</t>
+    <t>0.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,13 +57,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T15:41:11+00:00</t>
+    <t>2022-12-01T18:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
   </si>
   <si>
-    <t>OpenHIE</t>
+    <t>Jembi Health Systems</t>
   </si>
   <si>
     <t>Contact</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T18:12:17+00:00</t>
+    <t>2022-12-01T19:34:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-01T19:34:39+00:00</t>
+    <t>2022-12-02T06:33:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T06:33:16+00:00</t>
+    <t>2022-12-02T09:37:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T09:37:58+00:00</t>
+    <t>2022-12-02T12:00:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-12-02T12:00:15+00:00</t>
+    <t>2023-01-11T13:32:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -75,7 +75,7 @@
     <t>Jurisdiction</t>
   </si>
   <si>
-    <t>World</t>
+    <t>Global (Whole world)</t>
   </si>
   <si>
     <t>Description</t>
@@ -129,6 +129,9 @@
     <t>element:Element</t>
   </si>
   <si>
+    <t>ID</t>
+  </si>
+  <si>
     <t>Path</t>
   </si>
   <si>
@@ -244,6 +247,10 @@
   </si>
   <si>
     <t>*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -340,6 +347,9 @@
   <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
+  </si>
+  <si>
+    <t>Extension.value[x]:valueCodeableConcept</t>
   </si>
   <si>
     <t>valueCodeableConcept</t>
@@ -661,7 +671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ7"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -670,42 +680,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="19.59765625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.9765625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="19.59765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="22.25390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="8.95703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="42.1171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="17.24609375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.6640625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="21.57421875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="60.7734375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="21.57421875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="60.7734375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="18.1875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="24.98046875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="24.98046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -817,93 +827,96 @@
       <c r="AJ1" t="s" s="1">
         <v>73</v>
       </c>
+      <c r="AK1" t="s" s="1">
+        <v>74</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D2" s="2"/>
-      <c r="E2" t="s" s="2">
-        <v>75</v>
-      </c>
+      <c r="B2" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
         <v>76</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>9</v>
+        <v>78</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
-      <c r="M2" s="2"/>
+      <c r="M2" t="s" s="2">
+        <v>9</v>
+      </c>
       <c r="N2" s="2"/>
-      <c r="O2" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P2" s="2"/>
-      <c r="Q2" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O2" s="2"/>
+      <c r="P2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE2" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF2" t="s" s="2">
         <v>29</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>75</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>76</v>
@@ -912,510 +925,528 @@
         <v>77</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
+      </c>
+      <c r="AK2" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="B3" s="2"/>
-      <c r="C3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D3" s="2"/>
-      <c r="E3" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K3" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>83</v>
+      </c>
+      <c r="M3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q3" s="2"/>
+      <c r="R3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE3" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF3" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="AG3" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH3" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="L3" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE3" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AF3" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG3" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH3" t="s" s="2">
-        <v>74</v>
-      </c>
       <c r="AI3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>84</v>
+        <v>75</v>
+      </c>
+      <c r="AK3" t="s" s="2">
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>85</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="L4" t="s" s="2">
         <v>29</v>
       </c>
-      <c r="L4" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="M4" s="2"/>
+      <c r="M4" t="s" s="2">
+        <v>89</v>
+      </c>
       <c r="N4" s="2"/>
-      <c r="O4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P4" s="2"/>
-      <c r="Q4" t="s" s="2">
-        <v>74</v>
-      </c>
+      <c r="O4" s="2"/>
+      <c r="P4" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>76</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
+      </c>
+      <c r="AK4" t="s" s="2">
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D5" s="2"/>
-      <c r="E5" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>94</v>
+        <v>75</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="M5" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="N5" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="O5" s="2"/>
+      <c r="P5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q5" s="2"/>
+      <c r="R5" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE5" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF5" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="L5" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="N5" s="2"/>
-      <c r="O5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P5" s="2"/>
-      <c r="Q5" t="s" s="2">
-        <v>3</v>
-      </c>
-      <c r="R5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>93</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>79</v>
-      </c>
       <c r="AG5" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>98</v>
+        <v>75</v>
+      </c>
+      <c r="AK5" t="s" s="2">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D6" s="2"/>
-      <c r="E6" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q6" s="2"/>
+      <c r="R6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AC6" s="2"/>
+      <c r="AD6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AF6" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="K6" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P6" s="2"/>
-      <c r="Q6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AB6" s="2"/>
-      <c r="AC6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
+        <v>109</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="J7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="Q7" s="2"/>
+      <c r="R7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="Y7" s="2"/>
+      <c r="Z7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="K7" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="X7" s="2"/>
-      <c r="Y7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>99</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T13:32:21+00:00</t>
+    <t>2023-01-11T14:31:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T14:31:51+00:00</t>
+    <t>2023-01-11T15:47:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T15:47:52+00:00</t>
+    <t>2023-01-11T16:39:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-11T16:39:12+00:00</t>
+    <t>2023-01-12T06:02:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T06:02:57+00:00</t>
+    <t>2023-01-12T13:20:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T13:20:19+00:00</t>
+    <t>2023-01-12T14:08:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T14:08:07+00:00</t>
+    <t>2023-01-12T14:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T14:55:30+00:00</t>
+    <t>2023-01-12T16:14:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T16:14:01+00:00</t>
+    <t>2023-01-12T16:41:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T16:41:50+00:00</t>
+    <t>2023-01-12T17:05:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T17:05:04+00:00</t>
+    <t>2023-01-12T17:34:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T17:34:31+00:00</t>
+    <t>2023-01-12T19:06:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T19:06:40+00:00</t>
+    <t>2023-01-12T19:39:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-12T19:39:17+00:00</t>
+    <t>2023-01-13T06:54:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T06:54:07+00:00</t>
+    <t>2023-01-13T07:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T07:29:30+00:00</t>
+    <t>2023-01-13T08:57:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T08:57:34+00:00</t>
+    <t>2023-01-13T09:58:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T09:58:50+00:00</t>
+    <t>2023-01-13T10:29:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-13T10:29:27+00:00</t>
+    <t>2023-01-16T11:51:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T11:51:15+00:00</t>
+    <t>2023-01-16T12:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T12:33:27+00:00</t>
+    <t>2023-01-16T14:19:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T14:19:38+00:00</t>
+    <t>2023-01-16T14:48:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T14:48:34+00:00</t>
+    <t>2023-01-16T15:26:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:26:09+00:00</t>
+    <t>2023-01-16T15:57:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T15:57:09+00:00</t>
+    <t>2023-01-16T16:56:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T16:56:22+00:00</t>
+    <t>2023-01-16T17:14:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T17:14:17+00:00</t>
+    <t>2023-01-16T17:43:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T17:43:27+00:00</t>
+    <t>2023-01-16T18:10:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-16T18:10:54+00:00</t>
+    <t>2023-01-17T06:23:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T06:23:50+00:00</t>
+    <t>2023-01-17T07:03:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T07:03:05+00:00</t>
+    <t>2023-01-17T07:32:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T07:32:01+00:00</t>
+    <t>2023-01-17T08:15:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T08:15:18+00:00</t>
+    <t>2023-01-17T08:38:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="113">
   <si>
     <t>Property</t>
   </si>
@@ -42,7 +42,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Covid19 Conditions or Comorbidities Present</t>
+    <t>Conditions or Comorbidities Present</t>
   </si>
   <si>
     <t>Status</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T08:38:12+00:00</t>
+    <t>2023-01-17T11:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>Does the individual have any known pre-existing conditions and/or comorbidities?</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -593,75 +596,75 @@
         <v>21</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -720,733 +723,733 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="L2" t="s" s="2">
         <v>9</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
         <v>3</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="AC6" s="2"/>
       <c r="AD6" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="AF6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG6" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH6" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI6" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK6" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AG6" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH6" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI6" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ6" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Y7" s="2"/>
       <c r="Z7" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AF7" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>76</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AK7" t="s" s="2">
         <v>101</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>81</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T11:11:06+00:00</t>
+    <t>2023-01-17T11:46:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T11:46:45+00:00</t>
+    <t>2023-01-17T13:03:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T13:03:59+00:00</t>
+    <t>2023-01-17T14:44:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T14:44:37+00:00</t>
+    <t>2023-01-17T15:24:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T15:24:16+00:00</t>
+    <t>2023-01-17T16:11:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-17T16:11:06+00:00</t>
+    <t>2023-01-18T09:08:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T09:08:24+00:00</t>
+    <t>2023-01-18T12:04:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T12:04:25+00:00</t>
+    <t>2023-01-18T12:48:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T12:48:48+00:00</t>
+    <t>2023-01-18T14:34:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-18T14:34:48+00:00</t>
+    <t>2023-01-19T12:12:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T12:12:19+00:00</t>
+    <t>2023-01-20T14:21:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-20T14:21:04+00:00</t>
+    <t>2023-01-21T13:28:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-21T13:28:04+00:00</t>
+    <t>2023-01-23T10:58:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T10:58:26+00:00</t>
+    <t>2023-01-23T16:01:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-23T16:01:34+00:00</t>
+    <t>2023-01-24T12:59:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-24T12:59:21+00:00</t>
+    <t>2023-01-25T07:53:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T07:53:15+00:00</t>
+    <t>2023-01-25T13:17:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T13:17:11+00:00</t>
+    <t>2023-01-25T15:28:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T15:28:11+00:00</t>
+    <t>2023-01-26T13:59:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-26T13:59:31+00:00</t>
+    <t>2023-01-27T13:52:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-27T13:52:39+00:00</t>
+    <t>2023-01-28T12:05:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-28T12:05:49+00:00</t>
+    <t>2023-01-31T09:39:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T09:39:29+00:00</t>
+    <t>2023-01-31T16:23:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-31T16:23:08+00:00</t>
+    <t>2023-02-01T07:41:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T07:41:44+00:00</t>
+    <t>2023-02-01T15:14:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-01T15:14:51+00:00</t>
+    <t>2023-02-03T06:45:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T06:45:37+00:00</t>
+    <t>2023-02-03T16:07:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-03T16:07:07+00:00</t>
+    <t>2023-02-06T16:11:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T16:11:51+00:00</t>
+    <t>2023-02-06T16:23:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-06T16:23:37+00:00</t>
+    <t>2023-02-07T09:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T09:59:06+00:00</t>
+    <t>2023-02-07T10:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T10:23:57+00:00</t>
+    <t>2023-02-07T15:49:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-07T15:49:26+00:00</t>
+    <t>2023-02-09T06:56:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-09T06:56:17+00:00</t>
+    <t>2023-02-17T06:44:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T06:44:04+00:00</t>
+    <t>2023-02-17T13:07:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-17T13:07:02+00:00</t>
+    <t>2023-02-20T07:31:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-20T07:31:23+00:00</t>
+    <t>2023-02-24T05:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T05:16:13+00:00</t>
+    <t>2023-02-24T12:41:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-24T12:41:05+00:00</t>
+    <t>2023-02-27T13:21:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-27T13:21:54+00:00</t>
+    <t>2023-02-28T10:02:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-02-28T10:02:19+00:00</t>
+    <t>2023-03-02T06:03:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-02T06:03:12+00:00</t>
+    <t>2023-03-03T15:24:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-03T15:24:05+00:00</t>
+    <t>2023-03-09T10:20:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T10:20:35+00:00</t>
+    <t>2023-03-09T14:36:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-09T14:36:45+00:00</t>
+    <t>2023-03-13T06:32:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
+++ b/branches/master/StructureDefinition-covid19-conditions-or-comorbidities-present.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-13T06:32:29+00:00</t>
+    <t>2023-04-04T11:04:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
